--- a/Descargas/R15_14º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
+++ b/Descargas/R15_14º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
@@ -337,7 +337,7 @@
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Conduc.bajo Influen Del Alcohol Con O Sin Daños O Les.leves.</t>
+          <t xml:space="preserve">Conduc.ebriedad Resul.lesiones Menos Grave.a196 I.2Ley.trans</t>
         </is>
       </c>
       <c r="B14" s="65">
@@ -537,67 +537,67 @@
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">Homicidio Calificado.</t>
+          <t xml:space="preserve">Homicidio.</t>
         </is>
       </c>
       <c r="B34" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">Homicidio.</t>
+          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
         </is>
       </c>
       <c r="B35" s="65">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
         </is>
       </c>
       <c r="B36" s="65">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
         </is>
       </c>
       <c r="B37" s="65">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor Sobre 40 Utm.</t>
         </is>
       </c>
       <c r="B38" s="65">
-        <v>81</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor Sobre 40 Utm.</t>
+          <t xml:space="preserve">Hurto Simple.</t>
         </is>
       </c>
       <c r="B39" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">Hurto Simple.</t>
+          <t xml:space="preserve">Incendio</t>
         </is>
       </c>
       <c r="B40" s="65">
@@ -607,87 +607,87 @@
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">Incendio</t>
+          <t xml:space="preserve">Infringir Normas Higiénicas Y De Salubridad</t>
         </is>
       </c>
       <c r="B41" s="65">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">Infringir Normas Higiénicas Y De Salubridad</t>
+          <t xml:space="preserve">Injuria (Accion Privada).</t>
         </is>
       </c>
       <c r="B42" s="65">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">Injuria (Accion Privada).</t>
+          <t xml:space="preserve">Lesiones Graves.</t>
         </is>
       </c>
       <c r="B43" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">Lesiones Graves.</t>
+          <t xml:space="preserve">Lesiones Leves.</t>
         </is>
       </c>
       <c r="B44" s="65">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">Lesiones Leves.</t>
+          <t xml:space="preserve">Lesiones Menos Graves.</t>
         </is>
       </c>
       <c r="B45" s="65">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">Lesiones Menos Graves.</t>
+          <t xml:space="preserve">Maltrato Comet. P/Pers. C/Deber/Cuid. Art. 403 Bis Inc. Fin.</t>
         </is>
       </c>
       <c r="B46" s="65">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">Maltrato Comet. P/Pers. C/Deber/Cuid. Art. 403 Bis Inc. Fin.</t>
+          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
         </is>
       </c>
       <c r="B47" s="65">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
+          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
         </is>
       </c>
       <c r="B48" s="65">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
+          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
         </is>
       </c>
       <c r="B49" s="65">
@@ -697,7 +697,7 @@
     <row r="50">
       <c t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
+          <t xml:space="preserve">Negativa A Efectuarse Examen. Art. 195 Bis Ley  De Transito</t>
         </is>
       </c>
       <c r="B50" s="65">
@@ -707,37 +707,37 @@
     <row r="51">
       <c t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">Negativa A Efectuarse Examen. Art. 195 Bis Ley  De Transito</t>
+          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
         </is>
       </c>
       <c r="B51" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
+          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
         </is>
       </c>
       <c r="B52" s="65">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
+          <t xml:space="preserve">Otros Delit. Contra Orden Y Seg. Public Comet Por Particul</t>
         </is>
       </c>
       <c r="B53" s="65">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">Otros Delit. Contra Orden Y Seg. Public Comet Por Particul</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
         </is>
       </c>
       <c r="B54" s="65">
@@ -747,37 +747,37 @@
     <row r="55">
       <c t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+          <t xml:space="preserve">Otros Delitos Contra Las Personas</t>
         </is>
       </c>
       <c r="B55" s="65">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra Las Personas</t>
+          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
         </is>
       </c>
       <c r="B56" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
+          <t xml:space="preserve">Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
         </is>
       </c>
       <c r="B57" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
+          <t xml:space="preserve">Otros Estragos.</t>
         </is>
       </c>
       <c r="B58" s="65">
@@ -787,197 +787,197 @@
     <row r="59">
       <c t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">Otros Estragos.</t>
+          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
         </is>
       </c>
       <c r="B59" s="65">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
         </is>
       </c>
       <c r="B60" s="65">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
         </is>
       </c>
       <c r="B61" s="65">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+          <t xml:space="preserve">Porte Ilegal De Arma De Fuego, Municiones Y Otros Sujetas A.</t>
         </is>
       </c>
       <c r="B62" s="65">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">Porte Ilegal De Arma De Fuego, Municiones Y Otros Sujetas A.</t>
+          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
         </is>
       </c>
       <c r="B63" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
+          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
         </is>
       </c>
       <c r="B64" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
         </is>
       </c>
       <c r="B65" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+          <t xml:space="preserve">Presunta Desgracia.</t>
         </is>
       </c>
       <c r="B66" s="65">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">Presunta Desgracia.</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B67" s="65">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
       <c t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
         </is>
       </c>
       <c r="B68" s="65">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B69" s="65">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B70" s="65">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
         </is>
       </c>
       <c r="B71" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c t="inlineStr" r="A72">
         <is>
-          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
         </is>
       </c>
       <c r="B72" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c t="inlineStr" r="A73">
         <is>
-          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B73" s="65">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B74" s="65">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B75" s="65">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
       <c t="inlineStr" r="A76">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B76" s="65">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c t="inlineStr" r="A77">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
         </is>
       </c>
       <c r="B77" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c t="inlineStr" r="A78">
         <is>
-          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
+          <t xml:space="preserve">Usurpacion De Nombre.</t>
         </is>
       </c>
       <c r="B78" s="65">
@@ -987,7 +987,7 @@
     <row r="79">
       <c t="inlineStr" r="A79">
         <is>
-          <t xml:space="preserve">Usurpacion De Nombre.</t>
+          <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
       <c r="B79" s="65">
@@ -997,7 +997,7 @@
     <row r="80">
       <c t="inlineStr" r="A80">
         <is>
-          <t xml:space="preserve">Violacion  De Morada.</t>
+          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
         </is>
       </c>
       <c r="B80" s="65">
@@ -1007,20 +1007,10 @@
     <row r="81">
       <c t="inlineStr" r="A81">
         <is>
-          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+          <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
         </is>
       </c>
       <c r="B81" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c t="inlineStr" r="A82">
-        <is>
-          <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
-        </is>
-      </c>
-      <c r="B82" s="65">
         <v>1</v>
       </c>
     </row>
